--- a/resources/wheels/098 - Шуленко.xlsx
+++ b/resources/wheels/098 - Шуленко.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="944"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="944" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Колесо 1" sheetId="1" r:id="rId1"/>
@@ -733,22 +733,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>39.800000000000004</v>
+        <v>46.272000000000006</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1077,7 +1077,9 @@
       <c r="E24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>3.0110000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -1089,7 +1091,9 @@
       <c r="E25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.7929999999999999</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -1101,7 +1105,9 @@
       <c r="E26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.6679999999999999</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -1641,16 +1647,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1867,7 +1873,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>39.800000000000004</v>
+        <v>46.272000000000006</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1977,7 +1983,9 @@
       <c r="E24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>3.0110000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -1989,7 +1997,9 @@
       <c r="E25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.7929999999999999</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -2001,7 +2011,9 @@
       <c r="E26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.6679999999999999</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -2541,16 +2553,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2767,7 +2779,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>39.800000000000004</v>
+        <v>46.272000000000006</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2877,7 +2889,9 @@
       <c r="E24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>3.0110000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -2889,7 +2903,9 @@
       <c r="E25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.7929999999999999</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -2901,7 +2917,9 @@
       <c r="E26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.6679999999999999</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -3444,16 +3462,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3668,7 +3686,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>143.6</v>
+        <v>150.072</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3778,7 +3796,9 @@
       <c r="E24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>3.0110000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -3790,7 +3810,9 @@
       <c r="E25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.7929999999999999</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -3802,7 +3824,9 @@
       <c r="E26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.6679999999999999</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -4340,21 +4364,21 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4569,7 +4593,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>143.6</v>
+        <v>150.072</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4679,7 +4703,9 @@
       <c r="E24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>3.0110000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -4691,7 +4717,9 @@
       <c r="E25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.7929999999999999</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -4703,7 +4731,9 @@
       <c r="E26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.6679999999999999</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -5240,22 +5270,22 @@
   </sheetPr>
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5466,7 +5496,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>188.79999999999998</v>
+        <v>195.27199999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5576,7 +5606,9 @@
       <c r="E24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>3.0110000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -5588,7 +5620,9 @@
       <c r="E25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.7929999999999999</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -5600,7 +5634,9 @@
       <c r="E26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.6679999999999999</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -6134,22 +6170,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6368,7 +6404,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>39.800000000000004</v>
+        <v>46.272000000000006</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6478,7 +6514,9 @@
       <c r="E24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>3.0110000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -6490,7 +6528,9 @@
       <c r="E25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.7929999999999999</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -6502,7 +6542,9 @@
       <c r="E26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.6679999999999999</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -7036,22 +7078,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7268,7 +7310,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>39.800000000000004</v>
+        <v>46.272000000000006</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -7378,7 +7420,9 @@
       <c r="E24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>3.0110000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -7390,7 +7434,9 @@
       <c r="E25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.7929999999999999</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -7402,7 +7448,9 @@
       <c r="E26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.6679999999999999</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -7936,22 +7984,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8168,7 +8216,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>39.800000000000004</v>
+        <v>46.272000000000006</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -8278,7 +8326,9 @@
       <c r="E24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>3.0110000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -8290,7 +8340,9 @@
       <c r="E25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.7929999999999999</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -8302,7 +8354,9 @@
       <c r="E26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.6679999999999999</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -8836,22 +8890,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9068,7 +9122,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>71.100000000000009</v>
+        <v>77.572000000000017</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -9178,7 +9232,9 @@
       <c r="E24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>3.0110000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -9190,7 +9246,9 @@
       <c r="E25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.7929999999999999</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -9202,7 +9260,9 @@
       <c r="E26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.6679999999999999</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -9736,22 +9796,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9970,7 +10030,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>90.9</v>
+        <v>97.372000000000014</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -10080,7 +10140,9 @@
       <c r="E24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>3.0110000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -10092,7 +10154,9 @@
       <c r="E25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.7929999999999999</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -10104,7 +10168,9 @@
       <c r="E26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.6679999999999999</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -10641,22 +10707,22 @@
   </sheetPr>
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10875,7 +10941,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>120.4</v>
+        <v>126.87200000000001</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -10985,7 +11051,9 @@
       <c r="E24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>3.0110000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -10997,7 +11065,9 @@
       <c r="E25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.7929999999999999</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -11009,7 +11079,9 @@
       <c r="E26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.6679999999999999</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -11549,16 +11621,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11773,7 +11845,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>39.800000000000004</v>
+        <v>46.272000000000006</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -11883,7 +11955,9 @@
       <c r="E24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>3.0110000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -11895,7 +11969,9 @@
       <c r="E25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.7929999999999999</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -11907,7 +11983,9 @@
       <c r="E26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.6679999999999999</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -12447,16 +12525,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -12671,7 +12749,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>39.800000000000004</v>
+        <v>46.272000000000006</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -12781,7 +12859,9 @@
       <c r="E24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>3.0110000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -12793,7 +12873,9 @@
       <c r="E25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.7929999999999999</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -12805,7 +12887,9 @@
       <c r="E26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.6679999999999999</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>

--- a/resources/wheels/098 - Шуленко.xlsx
+++ b/resources/wheels/098 - Шуленко.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="72">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -212,6 +212,42 @@
   </si>
   <si>
     <t>A1927A-7</t>
+  </si>
+  <si>
+    <t>январь 2021</t>
+  </si>
+  <si>
+    <t>февраль 2021</t>
+  </si>
+  <si>
+    <t>март 2021</t>
+  </si>
+  <si>
+    <t>апрель 2021</t>
+  </si>
+  <si>
+    <t>май 2021</t>
+  </si>
+  <si>
+    <t>июнь 2021</t>
+  </si>
+  <si>
+    <t>июль 2021</t>
+  </si>
+  <si>
+    <t>август 2021</t>
+  </si>
+  <si>
+    <t>сентябрь 2021</t>
+  </si>
+  <si>
+    <t>октябрь 2021</t>
+  </si>
+  <si>
+    <t>ноябрь 2021</t>
+  </si>
+  <si>
+    <t>декабрь 2021</t>
   </si>
 </sst>
 </file>
@@ -967,7 +1003,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>46.272000000000006</v>
+        <v>55.984000000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1119,7 +1155,9 @@
       <c r="E27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>2.4980000000000002</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -1131,7 +1169,9 @@
       <c r="E28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>3.625</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -1143,7 +1183,9 @@
       <c r="E29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23">
+        <v>3.589</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -1873,7 +1915,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>46.272000000000006</v>
+        <v>55.984000000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2025,7 +2067,9 @@
       <c r="E27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>2.4980000000000002</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -2037,7 +2081,9 @@
       <c r="E28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>3.625</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -2049,7 +2095,9 @@
       <c r="E29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23">
+        <v>3.589</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -2779,7 +2827,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>46.272000000000006</v>
+        <v>55.984000000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2931,7 +2979,9 @@
       <c r="E27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>2.4980000000000002</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -2943,7 +2993,9 @@
       <c r="E28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>3.625</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -2955,7 +3007,9 @@
       <c r="E29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23">
+        <v>3.589</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -3686,7 +3740,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>150.072</v>
+        <v>159.78399999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3838,7 +3892,9 @@
       <c r="E27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>2.4980000000000002</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -3850,7 +3906,9 @@
       <c r="E28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>3.625</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -3862,7 +3920,9 @@
       <c r="E29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23">
+        <v>3.589</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -4593,7 +4653,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>150.072</v>
+        <v>159.78399999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4745,7 +4805,9 @@
       <c r="E27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>2.4980000000000002</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -4757,7 +4819,9 @@
       <c r="E28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>3.625</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -4769,7 +4833,9 @@
       <c r="E29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23">
+        <v>3.589</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -5270,8 +5336,8 @@
   </sheetPr>
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5496,7 +5562,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>195.27199999999999</v>
+        <v>206.33199999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5648,7 +5714,9 @@
       <c r="E27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>2.4980000000000002</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -5660,7 +5728,9 @@
       <c r="E28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>3.625</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -5672,7 +5742,9 @@
       <c r="E29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23">
+        <v>3.589</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -5681,8 +5753,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="12">
+        <v>1.3480000000000001</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -5691,7 +5767,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -5701,7 +5779,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -5711,7 +5791,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -5721,7 +5803,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -5731,7 +5815,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -5741,7 +5827,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -5751,7 +5839,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -5761,7 +5851,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -5771,7 +5863,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -5781,7 +5875,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -5791,7 +5887,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -6404,7 +6502,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>46.272000000000006</v>
+        <v>55.984000000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6556,7 +6654,9 @@
       <c r="E27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>2.4980000000000002</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -6568,7 +6668,9 @@
       <c r="E28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>3.625</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -6580,7 +6682,9 @@
       <c r="E29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23">
+        <v>3.589</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -7310,7 +7414,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>46.272000000000006</v>
+        <v>55.984000000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -7462,7 +7566,9 @@
       <c r="E27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>2.4980000000000002</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -7474,7 +7580,9 @@
       <c r="E28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>3.625</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -7486,7 +7594,9 @@
       <c r="E29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23">
+        <v>3.589</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -8216,7 +8326,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>46.272000000000006</v>
+        <v>55.984000000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -8368,7 +8478,9 @@
       <c r="E27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>2.4980000000000002</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -8380,7 +8492,9 @@
       <c r="E28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>3.625</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -8392,7 +8506,9 @@
       <c r="E29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23">
+        <v>3.589</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -9122,7 +9238,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>77.572000000000017</v>
+        <v>87.28400000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -9274,7 +9390,9 @@
       <c r="E27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>2.4980000000000002</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -9286,7 +9404,9 @@
       <c r="E28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>3.625</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -9298,7 +9418,9 @@
       <c r="E29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23">
+        <v>3.589</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -10030,7 +10152,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>97.372000000000014</v>
+        <v>107.08400000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -10182,7 +10304,9 @@
       <c r="E27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>2.4980000000000002</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -10194,7 +10318,9 @@
       <c r="E28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>3.625</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -10206,7 +10332,9 @@
       <c r="E29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23">
+        <v>3.589</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -10941,7 +11069,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>126.87200000000001</v>
+        <v>136.584</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -11093,7 +11221,9 @@
       <c r="E27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>2.4980000000000002</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -11105,7 +11235,9 @@
       <c r="E28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>3.625</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -11117,7 +11249,9 @@
       <c r="E29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23">
+        <v>3.589</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -11845,7 +11979,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>46.272000000000006</v>
+        <v>55.984000000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -11997,7 +12131,9 @@
       <c r="E27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>2.4980000000000002</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -12009,7 +12145,9 @@
       <c r="E28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>3.625</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -12021,7 +12159,9 @@
       <c r="E29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23">
+        <v>3.589</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -12749,7 +12889,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>46.272000000000006</v>
+        <v>55.984000000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -12901,7 +13041,9 @@
       <c r="E27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>2.4980000000000002</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -12913,7 +13055,9 @@
       <c r="E28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>3.625</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -12925,7 +13069,9 @@
       <c r="E29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23">
+        <v>3.589</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
